--- a/Stock_mutual_funds.xlsx
+++ b/Stock_mutual_funds.xlsx
@@ -25,11 +25,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <i val="1"/>
       <sz val="22"/>
     </font>
     <font>
-      <i val="1"/>
+      <b val="1"/>
       <sz val="22"/>
     </font>
   </fonts>
@@ -42,12 +42,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000ff00"/>
+        <fgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
+        <fgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,21 +87,21 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,13 +751,13 @@
       </c>
       <c r="J2" s="9" t="n"/>
       <c r="K2" s="10" t="n">
-        <v>64.34</v>
+        <v>58.59</v>
       </c>
       <c r="L2" s="10" t="n">
-        <v>9.49</v>
+        <v>9.77</v>
       </c>
       <c r="M2" s="10" t="n">
-        <v>9.74</v>
+        <v>10.4</v>
       </c>
       <c r="N2" s="9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>10.33</v>
       </c>
       <c r="AA2" s="10" t="n">
-        <v>22.71</v>
+        <v>26.04</v>
       </c>
       <c r="AB2" s="9" t="n"/>
       <c r="AC2" s="8" t="n">
@@ -898,13 +898,13 @@
       </c>
       <c r="J3" s="9" t="n"/>
       <c r="K3" s="10" t="n">
-        <v>74.86</v>
+        <v>66.94</v>
       </c>
       <c r="L3" s="10" t="n">
-        <v>12.02</v>
+        <v>12.21</v>
       </c>
       <c r="M3" s="10" t="n">
-        <v>11.79</v>
+        <v>12.2</v>
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>6.88</v>
       </c>
       <c r="AA3" s="10" t="n">
-        <v>32.7</v>
+        <v>34.96</v>
       </c>
       <c r="AB3" s="9" t="n"/>
       <c r="AC3" s="8" t="n">
@@ -1041,16 +1041,16 @@
       </c>
       <c r="J4" s="9" t="n"/>
       <c r="K4" s="10" t="n">
-        <v>69.56999999999999</v>
+        <v>63.07</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>8.949999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>11.19</v>
+        <v>13.23</v>
       </c>
       <c r="O4" s="9" t="n"/>
       <c r="P4" s="10" t="n">
@@ -1087,7 +1087,7 @@
         <v>3.77</v>
       </c>
       <c r="AA4" s="10" t="n">
-        <v>27.98</v>
+        <v>32.24</v>
       </c>
       <c r="AB4" s="9" t="n"/>
       <c r="AC4" s="12" t="n">
@@ -1176,10 +1176,10 @@
       </c>
       <c r="J5" s="9" t="n"/>
       <c r="K5" s="10" t="n">
-        <v>70.42</v>
+        <v>62.71</v>
       </c>
       <c r="L5" s="10" t="n">
-        <v>10.63</v>
+        <v>10.64</v>
       </c>
       <c r="M5" s="9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>4.51</v>
       </c>
       <c r="AA5" s="10" t="n">
-        <v>28.08</v>
+        <v>31.33</v>
       </c>
       <c r="AB5" s="9" t="n"/>
       <c r="AC5" s="8" t="n">
@@ -1333,13 +1333,13 @@
       </c>
       <c r="J6" s="9" t="n"/>
       <c r="K6" s="10" t="n">
-        <v>60.52</v>
+        <v>54.1</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>13.83</v>
+        <v>14.07</v>
       </c>
       <c r="M6" s="10" t="n">
-        <v>13.48</v>
+        <v>13.92</v>
       </c>
       <c r="N6" s="9" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>3.74</v>
       </c>
       <c r="AA6" s="10" t="n">
-        <v>25.06</v>
+        <v>27.92</v>
       </c>
       <c r="AB6" s="9" t="n"/>
       <c r="AC6" s="8" t="n">
@@ -2202,7 +2202,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>Baron Small Cap Fund Institutional Class (BSFIX)</t>
+          <t>Baron Investment Funds Trust - Baron Small Cap Fund (BSFIX)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -2215,9 +2215,9 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Small Growth</t>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="E12" s="9" t="n"/>
@@ -2234,81 +2234,129 @@
         <v>3</v>
       </c>
       <c r="J12" s="9" t="n"/>
-      <c r="K12" s="10" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="M12" s="10" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="N12" s="10" t="n">
-        <v>14.75</v>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O12" s="9" t="n"/>
-      <c r="P12" s="10" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="Q12" s="11" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="R12" s="10" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="S12" s="10" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="T12" s="10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U12" s="11" t="n">
-        <v>-5.01</v>
-      </c>
-      <c r="V12" s="10" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="W12" s="10" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="X12" s="11" t="n">
-        <v>-7.13</v>
-      </c>
-      <c r="Y12" s="10" t="n">
-        <v>34.87</v>
-      </c>
-      <c r="Z12" s="10" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="AA12" s="10" t="n">
-        <v>11.39</v>
+      <c r="P12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AB12" s="9" t="n"/>
-      <c r="AC12" s="14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD12" s="8" t="n">
-        <v>1.05</v>
+      <c r="AC12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AE12" s="9" t="n"/>
-      <c r="AF12" s="8" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="AG12" s="8" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AH12" s="8" t="n">
-        <v>18.29</v>
+      <c r="AF12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI12" s="9" t="n"/>
-      <c r="AJ12" s="8" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AK12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="8" t="n">
-        <v>0.79</v>
+      <c r="AJ12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AK12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AL12" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AM12" s="9" t="n"/>
       <c r="AN12" s="8" t="n">
@@ -2425,11 +2473,11 @@
       <c r="Z13" s="10" t="n">
         <v>36.76</v>
       </c>
-      <c r="AA13" s="10" t="n">
+      <c r="AA13" s="12" t="n">
         <v>16.54</v>
       </c>
       <c r="AB13" s="9" t="n"/>
-      <c r="AC13" s="8" t="n">
+      <c r="AC13" s="14" t="n">
         <v>1.05</v>
       </c>
       <c r="AD13" s="8" t="n">
@@ -2687,7 +2735,7 @@
       <c r="L15" s="10" t="n">
         <v>18.64</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="10" t="n">
         <v>20.79</v>
       </c>
       <c r="N15" s="9" t="inlineStr">
@@ -2736,7 +2784,7 @@
         <v>32.01</v>
       </c>
       <c r="AA15" s="10" t="n">
-        <v>12.53</v>
+        <v>12.88</v>
       </c>
       <c r="AB15" s="9" t="n"/>
       <c r="AC15" s="9" t="inlineStr">
@@ -2886,8 +2934,8 @@
       <c r="Z16" s="10" t="n">
         <v>32.07</v>
       </c>
-      <c r="AA16" s="12" t="n">
-        <v>16.94</v>
+      <c r="AA16" s="10" t="n">
+        <v>16.1</v>
       </c>
       <c r="AB16" s="9" t="n"/>
       <c r="AC16" s="9" t="inlineStr">
@@ -2982,16 +3030,16 @@
       </c>
       <c r="J17" s="9" t="n"/>
       <c r="K17" s="10" t="n">
-        <v>30.08</v>
+        <v>40.92</v>
       </c>
       <c r="L17" s="10" t="n">
-        <v>14.97</v>
+        <v>16.4</v>
       </c>
       <c r="M17" s="10" t="n">
-        <v>16.67</v>
+        <v>18.87</v>
       </c>
       <c r="N17" s="10" t="n">
-        <v>13.7</v>
+        <v>13.57</v>
       </c>
       <c r="O17" s="9" t="n"/>
       <c r="P17" s="10" t="n">
@@ -3028,7 +3076,7 @@
         <v>43.29</v>
       </c>
       <c r="AA17" s="10" t="n">
-        <v>0.49</v>
+        <v>0.02</v>
       </c>
       <c r="AB17" s="9" t="n"/>
       <c r="AC17" s="9" t="inlineStr">
@@ -3043,23 +3091,23 @@
       </c>
       <c r="AE17" s="9" t="n"/>
       <c r="AF17" s="8" t="n">
-        <v>24.41</v>
+        <v>24.29</v>
       </c>
       <c r="AG17" s="8" t="n">
-        <v>19.7</v>
+        <v>19.72</v>
       </c>
       <c r="AH17" s="8" t="n">
-        <v>18.15</v>
+        <v>18.18</v>
       </c>
       <c r="AI17" s="9" t="n"/>
       <c r="AJ17" s="8" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AK17" s="8" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AL17" s="8" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="AM17" s="9" t="n"/>
       <c r="AN17" s="8" t="n">
@@ -3169,7 +3217,7 @@
         <v>21.84</v>
       </c>
       <c r="AA18" s="10" t="n">
-        <v>11.75</v>
+        <v>11.52</v>
       </c>
       <c r="AB18" s="9" t="n"/>
       <c r="AC18" s="9" t="inlineStr">
@@ -3246,9 +3294,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>Small Growth</t>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="E19" s="9" t="n"/>
@@ -3265,54 +3313,86 @@
         <v>3</v>
       </c>
       <c r="J19" s="9" t="n"/>
-      <c r="K19" s="10" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="L19" s="10" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="M19" s="10" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="N19" s="10" t="n">
-        <v>13.86</v>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O19" s="9" t="n"/>
-      <c r="P19" s="10" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="Q19" s="11" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="R19" s="10" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="S19" s="10" t="n">
-        <v>38.18</v>
-      </c>
-      <c r="T19" s="10" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U19" s="11" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="V19" s="10" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="W19" s="10" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="X19" s="11" t="n">
-        <v>-5.68</v>
-      </c>
-      <c r="Y19" s="10" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="Z19" s="10" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="AA19" s="10" t="n">
-        <v>7.12</v>
+      <c r="P19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AB19" s="9" t="n"/>
       <c r="AC19" s="9" t="inlineStr">
@@ -3326,24 +3406,36 @@
         </is>
       </c>
       <c r="AE19" s="9" t="n"/>
-      <c r="AF19" s="8" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="AG19" s="8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH19" s="8" t="n">
-        <v>17.95</v>
+      <c r="AF19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AI19" s="9" t="n"/>
-      <c r="AJ19" s="8" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AK19" s="8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AL19" s="8" t="n">
-        <v>0.78</v>
+      <c r="AJ19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AK19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AL19" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AM19" s="9" t="n"/>
       <c r="AN19" s="8" t="n">
@@ -3544,7 +3636,7 @@
       <c r="K21" s="10" t="n">
         <v>42.67</v>
       </c>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="10" t="n">
         <v>26.92</v>
       </c>
       <c r="M21" s="9" t="inlineStr">
@@ -3644,10 +3736,10 @@
         </is>
       </c>
       <c r="AO21" s="8" t="n">
-        <v>95.09999999999999</v>
+        <v>94.77</v>
       </c>
       <c r="AP21" s="8" t="n">
-        <v>4.9</v>
+        <v>5.23</v>
       </c>
       <c r="AQ21" s="9" t="inlineStr">
         <is>
@@ -3709,7 +3801,7 @@
       <c r="M22" s="10" t="n">
         <v>19.09</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="10" t="n">
         <v>17.22</v>
       </c>
       <c r="O22" s="9" t="n"/>
@@ -4785,13 +4877,13 @@
       </c>
       <c r="AM29" s="9" t="n"/>
       <c r="AN29" s="8" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AO29" s="8" t="n">
-        <v>94.08</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AP29" s="8" t="n">
-        <v>4.01</v>
+        <v>4.14</v>
       </c>
       <c r="AQ29" s="8" t="n">
         <v>0.1</v>
@@ -5713,13 +5805,13 @@
       </c>
       <c r="AM35" s="9" t="n"/>
       <c r="AN35" s="8" t="n">
-        <v>1.61</v>
+        <v>0.89</v>
       </c>
       <c r="AO35" s="8" t="n">
-        <v>96.52</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="AP35" s="8" t="n">
-        <v>1.87</v>
+        <v>1.12</v>
       </c>
       <c r="AQ35" s="9" t="inlineStr">
         <is>
@@ -6268,7 +6360,7 @@
         <v>3.63</v>
       </c>
       <c r="AA39" s="10" t="n">
-        <v>22.7</v>
+        <v>23.01</v>
       </c>
       <c r="AB39" s="9" t="n"/>
       <c r="AC39" s="9" t="inlineStr">
@@ -6421,7 +6513,7 @@
         <v>13.51</v>
       </c>
       <c r="AA40" s="12" t="n">
-        <v>40.52</v>
+        <v>40.16</v>
       </c>
       <c r="AB40" s="9" t="n"/>
       <c r="AC40" s="9" t="inlineStr">
@@ -6460,10 +6552,10 @@
       </c>
       <c r="AM40" s="9" t="n"/>
       <c r="AN40" s="8" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="AO40" s="8" t="n">
-        <v>96.98999999999999</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="AP40" s="8" t="n">
         <v>2.11</v>
@@ -6582,7 +6674,7 @@
         <v>2.3</v>
       </c>
       <c r="AA41" s="10" t="n">
-        <v>28.21</v>
+        <v>28.22</v>
       </c>
       <c r="AB41" s="9" t="n"/>
       <c r="AC41" s="9" t="inlineStr">
@@ -6967,16 +7059,16 @@
       </c>
       <c r="J44" s="9" t="n"/>
       <c r="K44" s="10" t="n">
-        <v>59.89</v>
+        <v>62.07</v>
       </c>
       <c r="L44" s="10" t="n">
-        <v>13.72</v>
+        <v>13.99</v>
       </c>
       <c r="M44" s="10" t="n">
-        <v>10.59</v>
+        <v>10.49</v>
       </c>
       <c r="N44" s="10" t="n">
-        <v>12.77</v>
+        <v>11.48</v>
       </c>
       <c r="O44" s="9" t="n"/>
       <c r="P44" s="10" t="n">
@@ -7013,7 +7105,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="AA44" s="10" t="n">
-        <v>23.58</v>
+        <v>23.26</v>
       </c>
       <c r="AB44" s="9" t="n"/>
       <c r="AC44" s="8" t="n">
@@ -7307,7 +7399,7 @@
         <v>2.29</v>
       </c>
       <c r="AA46" s="10" t="n">
-        <v>22.47</v>
+        <v>22.92</v>
       </c>
       <c r="AB46" s="9" t="n"/>
       <c r="AC46" s="9" t="inlineStr">
@@ -7408,16 +7500,16 @@
       </c>
       <c r="J47" s="9" t="n"/>
       <c r="K47" s="10" t="n">
-        <v>56.57</v>
+        <v>61.2</v>
       </c>
       <c r="L47" s="10" t="n">
-        <v>10.43</v>
+        <v>11.27</v>
       </c>
       <c r="M47" s="10" t="n">
-        <v>11.62</v>
+        <v>12.54</v>
       </c>
       <c r="N47" s="10" t="n">
-        <v>12.07</v>
+        <v>11.64</v>
       </c>
       <c r="O47" s="9" t="n"/>
       <c r="P47" s="10" t="n">
@@ -7454,7 +7546,7 @@
         <v>3.53</v>
       </c>
       <c r="AA47" s="10" t="n">
-        <v>22.65</v>
+        <v>22.96</v>
       </c>
       <c r="AB47" s="9" t="n"/>
       <c r="AC47" s="9" t="inlineStr">
@@ -7469,23 +7561,23 @@
       </c>
       <c r="AE47" s="9" t="n"/>
       <c r="AF47" s="8" t="n">
-        <v>26.75</v>
+        <v>26.74</v>
       </c>
       <c r="AG47" s="8" t="n">
-        <v>21.48</v>
+        <v>21.52</v>
       </c>
       <c r="AH47" s="8" t="n">
-        <v>18.42</v>
+        <v>18.49</v>
       </c>
       <c r="AI47" s="9" t="n"/>
       <c r="AJ47" s="8" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="AK47" s="8" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="AL47" s="8" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="AM47" s="9" t="n"/>
       <c r="AN47" s="8" t="n">
@@ -7549,16 +7641,16 @@
       </c>
       <c r="J48" s="9" t="n"/>
       <c r="K48" s="10" t="n">
-        <v>65.31</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="L48" s="10" t="n">
-        <v>15</v>
+        <v>15.69</v>
       </c>
       <c r="M48" s="10" t="n">
-        <v>12.02</v>
+        <v>12.67</v>
       </c>
       <c r="N48" s="10" t="n">
-        <v>13.1</v>
+        <v>12.59</v>
       </c>
       <c r="O48" s="9" t="n"/>
       <c r="P48" s="10" t="n">
@@ -7595,7 +7687,7 @@
         <v>5.61</v>
       </c>
       <c r="AA48" s="10" t="n">
-        <v>25.67</v>
+        <v>25.14</v>
       </c>
       <c r="AB48" s="9" t="n"/>
       <c r="AC48" s="9" t="inlineStr">
@@ -7613,20 +7705,20 @@
         <v>25.59</v>
       </c>
       <c r="AG48" s="8" t="n">
-        <v>20.51</v>
+        <v>20.53</v>
       </c>
       <c r="AH48" s="8" t="n">
-        <v>17.8</v>
+        <v>17.88</v>
       </c>
       <c r="AI48" s="9" t="n"/>
       <c r="AJ48" s="8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AK48" s="8" t="n">
         <v>0.63</v>
       </c>
-      <c r="AK48" s="8" t="n">
-        <v>0.61</v>
-      </c>
       <c r="AL48" s="8" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AM48" s="9" t="n"/>
       <c r="AN48" s="8" t="n">
@@ -7738,7 +7830,7 @@
         <v>3.77</v>
       </c>
       <c r="AA49" s="10" t="n">
-        <v>22.64</v>
+        <v>22.6</v>
       </c>
       <c r="AB49" s="9" t="n"/>
       <c r="AC49" s="9" t="inlineStr">
@@ -7879,7 +7971,7 @@
         <v>2.5</v>
       </c>
       <c r="AA50" s="10" t="n">
-        <v>20.61</v>
+        <v>20.33</v>
       </c>
       <c r="AB50" s="9" t="n"/>
       <c r="AC50" s="9" t="inlineStr">
@@ -8026,7 +8118,7 @@
         <v>10.72</v>
       </c>
       <c r="AA51" s="10" t="n">
-        <v>25.78</v>
+        <v>26.18</v>
       </c>
       <c r="AB51" s="9" t="n"/>
       <c r="AC51" s="9" t="inlineStr">
@@ -8363,13 +8455,13 @@
       </c>
       <c r="AM53" s="9" t="n"/>
       <c r="AN53" s="8" t="n">
-        <v>2.59</v>
+        <v>2.32</v>
       </c>
       <c r="AO53" s="8" t="n">
-        <v>92.73</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="AP53" s="8" t="n">
-        <v>4.67</v>
+        <v>4.61</v>
       </c>
       <c r="AQ53" s="9" t="inlineStr">
         <is>
@@ -8955,13 +9047,13 @@
       </c>
       <c r="AM57" s="9" t="n"/>
       <c r="AN57" s="8" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AO57" s="8" t="n">
-        <v>96.45999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="AP57" s="8" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57" s="9" t="inlineStr">
         <is>
@@ -9081,7 +9173,7 @@
         <v>16.46</v>
       </c>
       <c r="AI58" s="9" t="n"/>
-      <c r="AJ58" s="8" t="n">
+      <c r="AJ58" s="14" t="n">
         <v>0.38</v>
       </c>
       <c r="AK58" s="8" t="n">
@@ -9092,13 +9184,13 @@
       </c>
       <c r="AM58" s="9" t="n"/>
       <c r="AN58" s="8" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AO58" s="8" t="n">
-        <v>95.04000000000001</v>
+        <v>93.91</v>
       </c>
       <c r="AP58" s="8" t="n">
-        <v>4.66</v>
+        <v>5.59</v>
       </c>
       <c r="AQ58" s="9" t="inlineStr">
         <is>
@@ -9297,16 +9389,16 @@
       </c>
       <c r="J60" s="9" t="n"/>
       <c r="K60" s="10" t="n">
-        <v>43.81</v>
+        <v>39.71</v>
       </c>
       <c r="L60" s="10" t="n">
-        <v>9.609999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="M60" s="10" t="n">
-        <v>11.16</v>
+        <v>11.17</v>
       </c>
       <c r="N60" s="10" t="n">
-        <v>10.17</v>
+        <v>11.29</v>
       </c>
       <c r="O60" s="9" t="n"/>
       <c r="P60" s="10" t="n">
@@ -9343,7 +9435,7 @@
         <v>3.81</v>
       </c>
       <c r="AA60" s="10" t="n">
-        <v>19.19</v>
+        <v>18.81</v>
       </c>
       <c r="AB60" s="9" t="n"/>
       <c r="AC60" s="14" t="n">
@@ -9432,16 +9524,16 @@
       </c>
       <c r="J61" s="9" t="n"/>
       <c r="K61" s="10" t="n">
-        <v>45.74</v>
+        <v>51.7</v>
       </c>
       <c r="L61" s="10" t="n">
-        <v>7.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M61" s="10" t="n">
-        <v>9.17</v>
+        <v>9.84</v>
       </c>
       <c r="N61" s="10" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="O61" s="9" t="n"/>
       <c r="P61" s="10" t="n">
@@ -9478,7 +9570,7 @@
         <v>-5.4</v>
       </c>
       <c r="AA61" s="10" t="n">
-        <v>21.48</v>
+        <v>21.22</v>
       </c>
       <c r="AB61" s="9" t="n"/>
       <c r="AC61" s="9" t="inlineStr">
@@ -9493,23 +9585,23 @@
       </c>
       <c r="AE61" s="9" t="n"/>
       <c r="AF61" s="8" t="n">
-        <v>24.65</v>
+        <v>24.66</v>
       </c>
       <c r="AG61" s="8" t="n">
-        <v>19.57</v>
+        <v>19.59</v>
       </c>
       <c r="AH61" s="8" t="n">
-        <v>16.24</v>
+        <v>16.27</v>
       </c>
       <c r="AI61" s="9" t="n"/>
-      <c r="AJ61" s="14" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AK61" s="14" t="n">
-        <v>0.49</v>
+      <c r="AJ61" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK61" s="8" t="n">
+        <v>0.52</v>
       </c>
       <c r="AL61" s="8" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AM61" s="9" t="n"/>
       <c r="AN61" s="9" t="inlineStr">
@@ -9575,16 +9667,16 @@
       </c>
       <c r="J62" s="9" t="n"/>
       <c r="K62" s="10" t="n">
-        <v>46.83</v>
+        <v>52.69</v>
       </c>
       <c r="L62" s="10" t="n">
-        <v>10.9</v>
+        <v>11.67</v>
       </c>
       <c r="M62" s="10" t="n">
-        <v>10.8</v>
+        <v>11.57</v>
       </c>
       <c r="N62" s="10" t="n">
-        <v>11.99</v>
+        <v>11.53</v>
       </c>
       <c r="O62" s="9" t="n"/>
       <c r="P62" s="10" t="n">
@@ -9621,7 +9713,7 @@
         <v>4.76</v>
       </c>
       <c r="AA62" s="10" t="n">
-        <v>20.38</v>
+        <v>20.45</v>
       </c>
       <c r="AB62" s="9" t="n"/>
       <c r="AC62" s="9" t="inlineStr">
@@ -9636,23 +9728,23 @@
       </c>
       <c r="AE62" s="9" t="n"/>
       <c r="AF62" s="8" t="n">
-        <v>23.26</v>
+        <v>23.28</v>
       </c>
       <c r="AG62" s="8" t="n">
-        <v>18.53</v>
+        <v>18.58</v>
       </c>
       <c r="AH62" s="8" t="n">
-        <v>16.03</v>
+        <v>16.09</v>
       </c>
       <c r="AI62" s="9" t="n"/>
       <c r="AJ62" s="8" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AK62" s="8" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="AL62" s="8" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AM62" s="9" t="n"/>
       <c r="AN62" s="8" t="n">
@@ -9726,7 +9818,7 @@
       <c r="K63" s="10" t="n">
         <v>25.36</v>
       </c>
-      <c r="L63" s="10" t="n">
+      <c r="L63" s="15" t="n">
         <v>6.16</v>
       </c>
       <c r="M63" s="10" t="n">
@@ -9917,7 +10009,7 @@
         <v>-3.76</v>
       </c>
       <c r="AA64" s="10" t="n">
-        <v>18.58</v>
+        <v>18.94</v>
       </c>
       <c r="AB64" s="9" t="n"/>
       <c r="AC64" s="9" t="inlineStr">
@@ -10880,7 +10972,7 @@
       <c r="AJ70" s="8" t="n">
         <v>0.44</v>
       </c>
-      <c r="AK70" s="8" t="n">
+      <c r="AK70" s="14" t="n">
         <v>0.49</v>
       </c>
       <c r="AL70" s="14" t="n">
@@ -10893,10 +10985,10 @@
         </is>
       </c>
       <c r="AO70" s="8" t="n">
-        <v>97.56999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AP70" s="8" t="n">
-        <v>2.43</v>
+        <v>1.3</v>
       </c>
       <c r="AQ70" s="9" t="inlineStr">
         <is>
@@ -10950,13 +11042,13 @@
       </c>
       <c r="J71" s="9" t="n"/>
       <c r="K71" s="10" t="n">
-        <v>47.49</v>
+        <v>49.25</v>
       </c>
       <c r="L71" s="10" t="n">
-        <v>7.85</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="M71" s="10" t="n">
-        <v>9.84</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="N71" s="9" t="inlineStr">
         <is>
@@ -11006,7 +11098,7 @@
         <v>-2.09</v>
       </c>
       <c r="AA71" s="10" t="n">
-        <v>21.78</v>
+        <v>21.81</v>
       </c>
       <c r="AB71" s="9" t="n"/>
       <c r="AC71" s="8" t="n">
@@ -11150,7 +11242,7 @@
       <c r="Z72" s="10" t="n">
         <v>58.86</v>
       </c>
-      <c r="AA72" s="10" t="n">
+      <c r="AA72" s="12" t="n">
         <v>19.11</v>
       </c>
       <c r="AB72" s="9" t="n"/>
@@ -11747,7 +11839,7 @@
         <v>36.9</v>
       </c>
       <c r="AA76" s="10" t="n">
-        <v>13.88</v>
+        <v>12.84</v>
       </c>
       <c r="AB76" s="9" t="n"/>
       <c r="AC76" s="9" t="inlineStr">
@@ -11888,7 +11980,7 @@
         <v>32.19</v>
       </c>
       <c r="AA77" s="10" t="n">
-        <v>14.2</v>
+        <v>14.81</v>
       </c>
       <c r="AB77" s="9" t="n"/>
       <c r="AC77" s="9" t="inlineStr">
@@ -12031,7 +12123,7 @@
         <v>22.52</v>
       </c>
       <c r="AA78" s="10" t="n">
-        <v>13.46</v>
+        <v>13.26</v>
       </c>
       <c r="AB78" s="9" t="n"/>
       <c r="AC78" s="9" t="inlineStr">
@@ -12066,10 +12158,10 @@
       </c>
       <c r="AM78" s="9" t="n"/>
       <c r="AN78" s="8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AO78" s="8" t="n">
-        <v>99.48</v>
+        <v>99.47</v>
       </c>
       <c r="AP78" s="8" t="n">
         <v>0.48</v>
@@ -12174,7 +12266,7 @@
         <v>22.51</v>
       </c>
       <c r="AA79" s="10" t="n">
-        <v>13.48</v>
+        <v>13.14</v>
       </c>
       <c r="AB79" s="9" t="n"/>
       <c r="AC79" s="9" t="inlineStr">
@@ -12333,7 +12425,7 @@
         <v>6.53</v>
       </c>
       <c r="AA80" s="10" t="n">
-        <v>19.36</v>
+        <v>19.26</v>
       </c>
       <c r="AB80" s="9" t="n"/>
       <c r="AC80" s="9" t="inlineStr">
@@ -12478,7 +12570,7 @@
         <v>35.29</v>
       </c>
       <c r="AA81" s="10" t="n">
-        <v>13</v>
+        <v>11.94</v>
       </c>
       <c r="AB81" s="9" t="n"/>
       <c r="AC81" s="9" t="inlineStr">
@@ -12619,7 +12711,7 @@
         <v>45.65</v>
       </c>
       <c r="AA82" s="10" t="n">
-        <v>11.81</v>
+        <v>10.65</v>
       </c>
       <c r="AB82" s="9" t="n"/>
       <c r="AC82" s="9" t="inlineStr">
@@ -12760,7 +12852,7 @@
         <v>29.01</v>
       </c>
       <c r="AA83" s="10" t="n">
-        <v>10.74</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AB83" s="9" t="n"/>
       <c r="AC83" s="9" t="inlineStr">
@@ -12903,7 +12995,7 @@
         <v>34.46</v>
       </c>
       <c r="AA84" s="10" t="n">
-        <v>14.55</v>
+        <v>14.13</v>
       </c>
       <c r="AB84" s="9" t="n"/>
       <c r="AC84" s="9" t="inlineStr">
@@ -13044,7 +13136,7 @@
         <v>34.59</v>
       </c>
       <c r="AA85" s="10" t="n">
-        <v>17.54</v>
+        <v>15.83</v>
       </c>
       <c r="AB85" s="9" t="n"/>
       <c r="AC85" s="9" t="inlineStr">
@@ -13243,7 +13335,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>Delaware Ivy Mid Cap Growth Fund Class R6 (IGRFX)</t>
+          <t>Delaware Ivy Mid Cap Growth Fund Class N (IGRFX)</t>
         </is>
       </c>
       <c r="B87" s="8" t="inlineStr">
@@ -14268,10 +14360,10 @@
         </is>
       </c>
       <c r="AO93" s="8" t="n">
-        <v>93.92</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="AP93" s="8" t="n">
-        <v>6.08</v>
+        <v>6.26</v>
       </c>
       <c r="AQ93" s="9" t="inlineStr">
         <is>
@@ -15243,7 +15335,7 @@
         <v>36.43</v>
       </c>
       <c r="AA100" s="10" t="n">
-        <v>6.36</v>
+        <v>4.35</v>
       </c>
       <c r="AB100" s="9" t="n"/>
       <c r="AC100" s="9" t="inlineStr">
@@ -16246,16 +16338,16 @@
       </c>
       <c r="J107" s="9" t="n"/>
       <c r="K107" s="10" t="n">
-        <v>40.94</v>
+        <v>40.87</v>
       </c>
       <c r="L107" s="10" t="n">
-        <v>21.86</v>
+        <v>21.99</v>
       </c>
       <c r="M107" s="10" t="n">
-        <v>16.88</v>
+        <v>16.44</v>
       </c>
       <c r="N107" s="10" t="n">
-        <v>16.2</v>
+        <v>14.63</v>
       </c>
       <c r="O107" s="9" t="n"/>
       <c r="P107" s="10" t="n">
@@ -16291,8 +16383,8 @@
       <c r="Z107" s="10" t="n">
         <v>35.81</v>
       </c>
-      <c r="AA107" s="12" t="n">
-        <v>20.17</v>
+      <c r="AA107" s="10" t="n">
+        <v>17.23</v>
       </c>
       <c r="AB107" s="9" t="n"/>
       <c r="AC107" s="8" t="n">
@@ -16814,10 +16906,10 @@
       </c>
       <c r="J111" s="9" t="n"/>
       <c r="K111" s="10" t="n">
-        <v>39</v>
+        <v>36.6</v>
       </c>
       <c r="L111" s="10" t="n">
-        <v>12.99</v>
+        <v>12.7</v>
       </c>
       <c r="M111" s="9" t="inlineStr">
         <is>
@@ -16880,7 +16972,7 @@
         <v>9.26</v>
       </c>
       <c r="AA111" s="10" t="n">
-        <v>17.56</v>
+        <v>17.9</v>
       </c>
       <c r="AB111" s="9" t="n"/>
       <c r="AC111" s="8" t="n">
@@ -17073,10 +17165,10 @@
         </is>
       </c>
       <c r="AO112" s="8" t="n">
-        <v>97.45</v>
+        <v>97.16</v>
       </c>
       <c r="AP112" s="8" t="n">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="AQ112" s="9" t="inlineStr">
         <is>
@@ -18435,13 +18527,13 @@
       </c>
       <c r="AM121" s="9" t="n"/>
       <c r="AN121" s="8" t="n">
-        <v>1.49</v>
+        <v>3.07</v>
       </c>
       <c r="AO121" s="8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AP121" s="8" t="n">
-        <v>98.34</v>
+        <v>96.75</v>
       </c>
       <c r="AQ121" s="8" t="n">
         <v>0.16</v>
@@ -19175,23 +19267,23 @@
         </is>
       </c>
       <c r="AO126" s="8" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AP126" s="8" t="n">
-        <v>99.81999999999999</v>
-      </c>
-      <c r="AQ126" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>101.8</v>
+      </c>
+      <c r="AQ126" s="9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AR126" s="9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AS126" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AS126" s="8" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="127">
@@ -19471,10 +19563,10 @@
         <v>0.02</v>
       </c>
       <c r="AO128" s="8" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AP128" s="8" t="n">
-        <v>99.3</v>
+        <v>99.28</v>
       </c>
       <c r="AQ128" s="9" t="inlineStr">
         <is>
@@ -19487,7 +19579,7 @@
         </is>
       </c>
       <c r="AS128" s="8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="129">
@@ -20850,7 +20942,7 @@
         <v>5</v>
       </c>
       <c r="J138" s="9" t="n"/>
-      <c r="K138" s="12" t="n">
+      <c r="K138" s="10" t="n">
         <v>41.32</v>
       </c>
       <c r="L138" s="10" t="n">
@@ -20896,7 +20988,7 @@
       <c r="Z138" s="10" t="n">
         <v>8.81</v>
       </c>
-      <c r="AA138" s="12" t="n">
+      <c r="AA138" s="10" t="n">
         <v>15.35</v>
       </c>
       <c r="AB138" s="9" t="n"/>
@@ -21966,10 +22058,10 @@
         </is>
       </c>
       <c r="AO145" s="8" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="AP145" s="8" t="n">
-        <v>97.34999999999999</v>
+        <v>97.27</v>
       </c>
       <c r="AQ145" s="9" t="inlineStr">
         <is>
@@ -23164,10 +23256,10 @@
         <v>0.71</v>
       </c>
       <c r="AE153" s="9" t="n"/>
-      <c r="AF153" s="14" t="n">
+      <c r="AF153" s="8" t="n">
         <v>20.77</v>
       </c>
-      <c r="AG153" s="14" t="n">
+      <c r="AG153" s="8" t="n">
         <v>17.28</v>
       </c>
       <c r="AH153" s="8" t="n">
@@ -24010,13 +24102,13 @@
       </c>
       <c r="J159" s="9" t="n"/>
       <c r="K159" s="10" t="n">
-        <v>24.81</v>
+        <v>24.38</v>
       </c>
       <c r="L159" s="10" t="n">
-        <v>9.529999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="M159" s="10" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="N159" s="9" t="inlineStr">
         <is>
@@ -24066,7 +24158,7 @@
         <v>15.81</v>
       </c>
       <c r="AA159" s="10" t="n">
-        <v>8.289999999999999</v>
+        <v>6.58</v>
       </c>
       <c r="AB159" s="9" t="n"/>
       <c r="AC159" s="8" t="n">
@@ -25063,10 +25155,10 @@
       </c>
       <c r="J166" s="9" t="n"/>
       <c r="K166" s="10" t="n">
-        <v>29.66</v>
+        <v>28.56</v>
       </c>
       <c r="L166" s="10" t="n">
-        <v>13.76</v>
+        <v>12.44</v>
       </c>
       <c r="M166" s="9" t="inlineStr">
         <is>
@@ -25129,7 +25221,7 @@
         <v>25.24</v>
       </c>
       <c r="AA166" s="10" t="n">
-        <v>7.33</v>
+        <v>4.93</v>
       </c>
       <c r="AB166" s="9" t="n"/>
       <c r="AC166" s="12" t="n">
@@ -25748,13 +25840,13 @@
       </c>
       <c r="AM170" s="9" t="n"/>
       <c r="AN170" s="8" t="n">
-        <v>0.46</v>
+        <v>1.22</v>
       </c>
       <c r="AO170" s="8" t="n">
-        <v>3.83</v>
+        <v>3.92</v>
       </c>
       <c r="AP170" s="8" t="n">
-        <v>95.70999999999999</v>
+        <v>94.87</v>
       </c>
       <c r="AQ170" s="9" t="inlineStr">
         <is>
@@ -26684,10 +26776,10 @@
       </c>
       <c r="J177" s="9" t="n"/>
       <c r="K177" s="10" t="n">
-        <v>30.68</v>
+        <v>30.24</v>
       </c>
       <c r="L177" s="10" t="n">
-        <v>5.22</v>
+        <v>6.02</v>
       </c>
       <c r="M177" s="9" t="inlineStr">
         <is>
@@ -26750,7 +26842,7 @@
         <v>1.25</v>
       </c>
       <c r="AA177" s="10" t="n">
-        <v>12.97</v>
+        <v>14.39</v>
       </c>
       <c r="AB177" s="9" t="n"/>
       <c r="AC177" s="8" t="n">
@@ -26941,10 +27033,10 @@
         </is>
       </c>
       <c r="AO178" s="8" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AP178" s="8" t="n">
-        <v>98.62</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="AQ178" s="9" t="inlineStr">
         <is>
@@ -27987,13 +28079,13 @@
       </c>
       <c r="AM185" s="9" t="n"/>
       <c r="AN185" s="8" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="AO185" s="8" t="n">
-        <v>99.17</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="AP185" s="8" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AQ185" s="9" t="inlineStr">
         <is>
@@ -29361,9 +29453,9 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A195" s="8" t="inlineStr">
+        <is>
+          <t>Columbia Large Cap Growth Fund Institutional 3 Class (CGFYX)</t>
         </is>
       </c>
       <c r="B195" s="8" t="inlineStr">
@@ -29897,7 +29989,7 @@
       <c r="AG198" s="8" t="n">
         <v>19.52</v>
       </c>
-      <c r="AH198" s="14" t="n">
+      <c r="AH198" s="8" t="n">
         <v>18.95</v>
       </c>
       <c r="AI198" s="9" t="n"/>
@@ -30989,13 +31081,13 @@
       </c>
       <c r="AM205" s="9" t="n"/>
       <c r="AN205" s="8" t="n">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AO205" s="8" t="n">
-        <v>97.26000000000001</v>
+        <v>97</v>
       </c>
       <c r="AP205" s="8" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="AQ205" s="9" t="inlineStr">
         <is>
@@ -32086,10 +32178,10 @@
       </c>
       <c r="J213" s="9" t="n"/>
       <c r="K213" s="10" t="n">
-        <v>37.4</v>
+        <v>33.15</v>
       </c>
       <c r="L213" s="10" t="n">
-        <v>26.99</v>
+        <v>27.3</v>
       </c>
       <c r="M213" s="9" t="inlineStr">
         <is>
@@ -32152,7 +32244,7 @@
         <v>61.99</v>
       </c>
       <c r="AA213" s="10" t="n">
-        <v>10.98</v>
+        <v>12.41</v>
       </c>
       <c r="AB213" s="9" t="n"/>
       <c r="AC213" s="8" t="n">
@@ -32343,10 +32435,10 @@
         </is>
       </c>
       <c r="AO214" s="8" t="n">
-        <v>99.12</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="AP214" s="8" t="n">
-        <v>0.88</v>
+        <v>1.51</v>
       </c>
       <c r="AQ214" s="9" t="inlineStr">
         <is>
@@ -32779,13 +32871,13 @@
       </c>
       <c r="AM217" s="9" t="n"/>
       <c r="AN217" s="8" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="AO217" s="8" t="n">
-        <v>98.55</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="AP217" s="8" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AQ217" s="9" t="inlineStr">
         <is>
@@ -33615,15 +33707,11 @@
         <v>3</v>
       </c>
       <c r="J223" s="9" t="n"/>
-      <c r="K223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K223" s="10" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="L223" s="10" t="n">
+        <v>22.47</v>
       </c>
       <c r="M223" s="9" t="inlineStr">
         <is>
@@ -33666,30 +33754,20 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="V223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="V223" s="10" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="W223" s="10" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="X223" s="11" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="Y223" s="10" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="Z223" s="10" t="n">
+        <v>30.94</v>
       </c>
       <c r="AA223" s="10" t="n">
         <v>20.09</v>
@@ -33726,20 +33804,14 @@
         </is>
       </c>
       <c r="AM223" s="9" t="n"/>
-      <c r="AN223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AO223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AP223" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AN223" s="8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO223" s="8" t="n">
+        <v>97.18000000000001</v>
+      </c>
+      <c r="AP223" s="8" t="n">
+        <v>2.19</v>
       </c>
       <c r="AQ223" s="9" t="inlineStr">
         <is>
@@ -34304,36 +34376,24 @@
         </is>
       </c>
       <c r="AE227" s="9" t="n"/>
-      <c r="AF227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF227" s="8" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AG227" s="8" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="AH227" s="8" t="n">
+        <v>13.75</v>
       </c>
       <c r="AI227" s="9" t="n"/>
-      <c r="AJ227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL227" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ227" s="8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AK227" s="8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL227" s="8" t="n">
+        <v>1.18</v>
       </c>
       <c r="AM227" s="9" t="n"/>
       <c r="AN227" s="8" t="n">
@@ -34737,13 +34797,13 @@
       <c r="K230" s="10" t="n">
         <v>41.64</v>
       </c>
-      <c r="L230" s="10" t="n">
+      <c r="L230" s="12" t="n">
         <v>20.82</v>
       </c>
-      <c r="M230" s="10" t="n">
+      <c r="M230" s="12" t="n">
         <v>22.03</v>
       </c>
-      <c r="N230" s="10" t="n">
+      <c r="N230" s="12" t="n">
         <v>16.5</v>
       </c>
       <c r="O230" s="9" t="n"/>
@@ -34805,13 +34865,13 @@
         <v>14.74</v>
       </c>
       <c r="AI230" s="9" t="n"/>
-      <c r="AJ230" s="8" t="n">
+      <c r="AJ230" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK230" s="8" t="n">
+      <c r="AK230" s="12" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL230" s="8" t="n">
+      <c r="AL230" s="12" t="n">
         <v>1.07</v>
       </c>
       <c r="AM230" s="9" t="n"/>
@@ -35531,13 +35591,13 @@
       </c>
       <c r="AM235" s="9" t="n"/>
       <c r="AN235" s="8" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="AO235" s="8" t="n">
-        <v>95.33</v>
+        <v>95.08</v>
       </c>
       <c r="AP235" s="8" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AQ235" s="8" t="n">
         <v>0.22</v>
@@ -36779,10 +36839,10 @@
         <v>0.75</v>
       </c>
       <c r="AE244" s="9" t="n"/>
-      <c r="AF244" s="14" t="n">
+      <c r="AF244" s="8" t="n">
         <v>24.48</v>
       </c>
-      <c r="AG244" s="14" t="n">
+      <c r="AG244" s="8" t="n">
         <v>20.32</v>
       </c>
       <c r="AH244" s="8" t="n">
@@ -37698,13 +37758,13 @@
       </c>
       <c r="AM250" s="9" t="n"/>
       <c r="AN250" s="8" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AO250" s="8" t="n">
-        <v>98.81999999999999</v>
+        <v>98.86</v>
       </c>
       <c r="AP250" s="8" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="AQ250" s="9" t="inlineStr">
         <is>
@@ -38924,9 +38984,9 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="D259" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D259" s="8" t="inlineStr">
+        <is>
+          <t>Small Value</t>
         </is>
       </c>
       <c r="E259" s="9" t="n"/>
@@ -38989,21 +39049,15 @@
       <c r="Z259" s="10" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="AA259" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA259" s="10" t="n">
+        <v>23.42</v>
       </c>
       <c r="AB259" s="9" t="n"/>
-      <c r="AC259" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD259" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AC259" s="8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD259" s="8" t="n">
+        <v>0.9</v>
       </c>
       <c r="AE259" s="9" t="n"/>
       <c r="AF259" s="8" t="n">
@@ -39012,7 +39066,7 @@
       <c r="AG259" s="8" t="n">
         <v>23.98</v>
       </c>
-      <c r="AH259" s="14" t="n">
+      <c r="AH259" s="8" t="n">
         <v>20.44</v>
       </c>
       <c r="AI259" s="9" t="n"/>
@@ -39921,10 +39975,10 @@
       </c>
       <c r="AM265" s="9" t="n"/>
       <c r="AN265" s="8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AO265" s="8" t="n">
-        <v>98.59</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AP265" s="8" t="n">
         <v>1.27</v>
@@ -39980,81 +40034,51 @@
         <v>5</v>
       </c>
       <c r="J266" s="9" t="n"/>
-      <c r="K266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K266" s="10" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="L266" s="10" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="M266" s="10" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="N266" s="10" t="n">
+        <v>11.84</v>
       </c>
       <c r="O266" s="9" t="n"/>
-      <c r="P266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z266" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P266" s="10" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="Q266" s="11" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="R266" s="10" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="S266" s="10" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="T266" s="10" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="U266" s="11" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="V266" s="10" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="W266" s="10" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="X266" s="11" t="n">
+        <v>-12.22</v>
+      </c>
+      <c r="Y266" s="10" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="Z266" s="10" t="n">
+        <v>5.82</v>
       </c>
       <c r="AA266" s="10" t="n">
         <v>21.64</v>
@@ -40343,36 +40367,24 @@
         <v>0.89</v>
       </c>
       <c r="AE268" s="9" t="n"/>
-      <c r="AF268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF268" s="8" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="AG268" s="8" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="AH268" s="8" t="n">
+        <v>19.18</v>
       </c>
       <c r="AI268" s="9" t="n"/>
-      <c r="AJ268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL268" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ268" s="8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AK268" s="8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AL268" s="8" t="n">
+        <v>0.58</v>
       </c>
       <c r="AM268" s="9" t="n"/>
       <c r="AN268" s="8" t="n">
@@ -40414,9 +40426,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D269" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D269" s="8" t="inlineStr">
+        <is>
+          <t>Small Value</t>
         </is>
       </c>
       <c r="E269" s="9" t="n"/>
@@ -40439,7 +40451,7 @@
       <c r="L269" s="10" t="n">
         <v>5.48</v>
       </c>
-      <c r="M269" s="15" t="n">
+      <c r="M269" s="10" t="n">
         <v>9.07</v>
       </c>
       <c r="N269" s="10" t="n">
@@ -40479,10 +40491,8 @@
       <c r="Z269" s="11" t="n">
         <v>-4.42</v>
       </c>
-      <c r="AA269" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA269" s="10" t="n">
+        <v>19.23</v>
       </c>
       <c r="AB269" s="9" t="n"/>
       <c r="AC269" s="9" t="inlineStr">
@@ -40506,10 +40516,10 @@
         <v>18.15</v>
       </c>
       <c r="AI269" s="9" t="n"/>
-      <c r="AJ269" s="8" t="n">
+      <c r="AJ269" s="14" t="n">
         <v>0.29</v>
       </c>
-      <c r="AK269" s="14" t="n">
+      <c r="AK269" s="8" t="n">
         <v>0.47</v>
       </c>
       <c r="AL269" s="8" t="n">
@@ -40802,7 +40812,7 @@
         <v>19.74</v>
       </c>
       <c r="AI271" s="9" t="n"/>
-      <c r="AJ271" s="14" t="n">
+      <c r="AJ271" s="8" t="n">
         <v>0.33</v>
       </c>
       <c r="AK271" s="14" t="n">
@@ -40818,10 +40828,10 @@
         </is>
       </c>
       <c r="AO271" s="8" t="n">
-        <v>95.61</v>
+        <v>94.84</v>
       </c>
       <c r="AP271" s="8" t="n">
-        <v>4.39</v>
+        <v>5.16</v>
       </c>
       <c r="AQ271" s="9" t="inlineStr">
         <is>
@@ -40962,13 +40972,13 @@
       </c>
       <c r="AM272" s="9" t="n"/>
       <c r="AN272" s="8" t="n">
-        <v>2.93</v>
+        <v>2.74</v>
       </c>
       <c r="AO272" s="8" t="n">
-        <v>89.72</v>
+        <v>89.88</v>
       </c>
       <c r="AP272" s="13" t="n">
-        <v>7.35</v>
+        <v>7.38</v>
       </c>
       <c r="AQ272" s="9" t="inlineStr">
         <is>
@@ -41464,10 +41474,10 @@
       <c r="L276" s="10" t="n">
         <v>6.26</v>
       </c>
-      <c r="M276" s="10" t="n">
+      <c r="M276" s="15" t="n">
         <v>10.6</v>
       </c>
-      <c r="N276" s="10" t="n">
+      <c r="N276" s="15" t="n">
         <v>8.83</v>
       </c>
       <c r="O276" s="9" t="n"/>
@@ -41525,17 +41535,17 @@
       <c r="AG276" s="14" t="n">
         <v>24.54</v>
       </c>
-      <c r="AH276" s="8" t="n">
+      <c r="AH276" s="14" t="n">
         <v>20.3</v>
       </c>
       <c r="AI276" s="9" t="n"/>
-      <c r="AJ276" s="8" t="n">
+      <c r="AJ276" s="14" t="n">
         <v>0.31</v>
       </c>
-      <c r="AK276" s="8" t="n">
+      <c r="AK276" s="14" t="n">
         <v>0.49</v>
       </c>
-      <c r="AL276" s="8" t="n">
+      <c r="AL276" s="14" t="n">
         <v>0.49</v>
       </c>
       <c r="AM276" s="9" t="n"/>
@@ -41712,9 +41722,9 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A278" s="8" t="inlineStr">
+        <is>
+          <t>Vanguard Russell 2000 Growth Index Fund ETF Shares (VTWG)</t>
         </is>
       </c>
       <c r="B278" s="8" t="inlineStr">
@@ -42419,36 +42429,24 @@
         <v>1.09</v>
       </c>
       <c r="AE282" s="9" t="n"/>
-      <c r="AF282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF282" s="8" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="AG282" s="8" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="AH282" s="8" t="n">
+        <v>18.5</v>
       </c>
       <c r="AI282" s="9" t="n"/>
-      <c r="AJ282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL282" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ282" s="8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AK282" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL282" s="8" t="n">
+        <v>0.72</v>
       </c>
       <c r="AM282" s="9" t="n"/>
       <c r="AN282" s="8" t="n">
@@ -42825,81 +42823,51 @@
         <v>5</v>
       </c>
       <c r="J285" s="9" t="n"/>
-      <c r="K285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K285" s="10" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="L285" s="12" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="M285" s="12" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="N285" s="12" t="n">
+        <v>17.71</v>
       </c>
       <c r="O285" s="9" t="n"/>
-      <c r="P285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z285" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P285" s="10" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="Q285" s="11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="R285" s="10" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="S285" s="10" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="T285" s="11" t="n">
+        <v>-5.18</v>
+      </c>
+      <c r="U285" s="10" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="V285" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="W285" s="10" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="X285" s="11" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="Y285" s="10" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="Z285" s="10" t="n">
+        <v>70.41</v>
       </c>
       <c r="AA285" s="10" t="n">
         <v>6.82</v>
@@ -43412,7 +43380,7 @@
       <c r="K289" s="10" t="n">
         <v>57.53</v>
       </c>
-      <c r="L289" s="15" t="n">
+      <c r="L289" s="10" t="n">
         <v>13.06</v>
       </c>
       <c r="M289" s="10" t="n">
@@ -43867,16 +43835,16 @@
       </c>
       <c r="J292" s="9" t="n"/>
       <c r="K292" s="10" t="n">
-        <v>33.9</v>
+        <v>30.34</v>
       </c>
       <c r="L292" s="10" t="n">
-        <v>17.55</v>
+        <v>15.93</v>
       </c>
       <c r="M292" s="10" t="n">
-        <v>15.06</v>
+        <v>15.6</v>
       </c>
       <c r="N292" s="10" t="n">
-        <v>13.76</v>
+        <v>15</v>
       </c>
       <c r="O292" s="9" t="n"/>
       <c r="P292" s="10" t="n">
@@ -43913,7 +43881,7 @@
         <v>37.56</v>
       </c>
       <c r="AA292" s="10" t="n">
-        <v>11.05</v>
+        <v>11.36</v>
       </c>
       <c r="AB292" s="9" t="n"/>
       <c r="AC292" s="8" t="n">
@@ -43944,13 +43912,13 @@
       </c>
       <c r="AM292" s="9" t="n"/>
       <c r="AN292" s="8" t="n">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="AO292" s="8" t="n">
-        <v>96.19</v>
+        <v>97.39</v>
       </c>
       <c r="AP292" s="8" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="AQ292" s="9" t="inlineStr">
         <is>
@@ -44148,81 +44116,51 @@
         <v>3</v>
       </c>
       <c r="J294" s="9" t="n"/>
-      <c r="K294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K294" s="10" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="L294" s="15" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="M294" s="10" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="N294" s="10" t="n">
+        <v>13.76</v>
       </c>
       <c r="O294" s="9" t="n"/>
-      <c r="P294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z294" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P294" s="10" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="Q294" s="10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R294" s="10" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="S294" s="10" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="T294" s="10" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U294" s="10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V294" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="W294" s="10" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="X294" s="11" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="Y294" s="10" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="Z294" s="10" t="n">
+        <v>19.17</v>
       </c>
       <c r="AA294" s="10" t="n">
         <v>15.91</v>
@@ -44725,9 +44663,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D298" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D298" s="8" t="inlineStr">
+        <is>
+          <t>Small Blend</t>
         </is>
       </c>
       <c r="E298" s="9" t="n"/>
@@ -44792,10 +44730,8 @@
       <c r="Z298" s="10" t="n">
         <v>20.1</v>
       </c>
-      <c r="AA298" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA298" s="10" t="n">
+        <v>13.98</v>
       </c>
       <c r="AB298" s="9" t="n"/>
       <c r="AC298" s="9" t="inlineStr">
@@ -45201,81 +45137,51 @@
         <v>3</v>
       </c>
       <c r="J301" s="9" t="n"/>
-      <c r="K301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K301" s="10" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="L301" s="10" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="M301" s="10" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="N301" s="10" t="n">
+        <v>12.2</v>
       </c>
       <c r="O301" s="9" t="n"/>
-      <c r="P301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z301" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P301" s="10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Q301" s="11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="R301" s="10" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="S301" s="10" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="T301" s="10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U301" s="11" t="n">
+        <v>-8.92</v>
+      </c>
+      <c r="V301" s="10" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="W301" s="10" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="X301" s="11" t="n">
+        <v>-10.28</v>
+      </c>
+      <c r="Y301" s="10" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="Z301" s="10" t="n">
+        <v>19.25</v>
       </c>
       <c r="AA301" s="10" t="n">
         <v>19.79</v>
@@ -46681,9 +46587,9 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A311" s="8" t="inlineStr">
+        <is>
+          <t>ClearBridge Small Cap Fund Class IS (LISGX)</t>
         </is>
       </c>
       <c r="B311" s="8" t="inlineStr">
@@ -46808,7 +46714,7 @@
       <c r="AK311" s="8" t="n">
         <v>0.66</v>
       </c>
-      <c r="AL311" s="8" t="n">
+      <c r="AL311" s="14" t="n">
         <v>0.59</v>
       </c>
       <c r="AM311" s="9" t="n"/>
@@ -47934,13 +47840,13 @@
       </c>
       <c r="AM318" s="9" t="n"/>
       <c r="AN318" s="8" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AO318" s="8" t="n">
-        <v>98.81</v>
+        <v>98.77</v>
       </c>
       <c r="AP318" s="8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ318" s="9" t="inlineStr">
         <is>
@@ -49273,13 +49179,13 @@
       </c>
       <c r="AM327" s="9" t="n"/>
       <c r="AN327" s="8" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AO327" s="8" t="n">
-        <v>97.47</v>
+        <v>97.56</v>
       </c>
       <c r="AP327" s="8" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AQ327" s="9" t="inlineStr">
         <is>
@@ -51219,9 +51125,9 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A341" s="8" t="inlineStr">
+        <is>
+          <t>iShares MSCI USA Equal Weighted ETF (EUSA)</t>
         </is>
       </c>
       <c r="B341" s="8" t="inlineStr">
@@ -51536,9 +51442,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D343" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D343" s="8" t="inlineStr">
+        <is>
+          <t>Foreign Small-Mid Value</t>
         </is>
       </c>
       <c r="E343" s="9" t="n"/>
@@ -51555,16 +51461,16 @@
         <v>3</v>
       </c>
       <c r="J343" s="9" t="n"/>
-      <c r="K343" s="10" t="n">
+      <c r="K343" s="15" t="n">
         <v>38.27</v>
       </c>
       <c r="L343" s="15" t="n">
         <v>4.57</v>
       </c>
-      <c r="M343" s="10" t="n">
+      <c r="M343" s="15" t="n">
         <v>9.31</v>
       </c>
-      <c r="N343" s="15" t="n">
+      <c r="N343" s="12" t="n">
         <v>7.17</v>
       </c>
       <c r="O343" s="9" t="n"/>
@@ -51601,10 +51507,8 @@
       <c r="Z343" s="11" t="n">
         <v>-1.22</v>
       </c>
-      <c r="AA343" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA343" s="10" t="n">
+        <v>12.27</v>
       </c>
       <c r="AB343" s="9" t="n"/>
       <c r="AC343" s="9" t="inlineStr">
@@ -51631,10 +51535,10 @@
       <c r="AJ343" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="AK343" s="8" t="n">
+      <c r="AK343" s="14" t="n">
         <v>0.55</v>
       </c>
-      <c r="AL343" s="14" t="n">
+      <c r="AL343" s="8" t="n">
         <v>0.48</v>
       </c>
       <c r="AM343" s="9" t="n"/>
@@ -51646,7 +51550,7 @@
       <c r="AO343" s="8" t="n">
         <v>0.61</v>
       </c>
-      <c r="AP343" s="13" t="n">
+      <c r="AP343" s="8" t="n">
         <v>99.39</v>
       </c>
       <c r="AQ343" s="9" t="inlineStr">
@@ -51700,7 +51604,7 @@
         <v>4</v>
       </c>
       <c r="J344" s="9" t="n"/>
-      <c r="K344" s="15" t="n">
+      <c r="K344" s="10" t="n">
         <v>42.24</v>
       </c>
       <c r="L344" s="10" t="n">
@@ -51709,7 +51613,7 @@
       <c r="M344" s="12" t="n">
         <v>10.75</v>
       </c>
-      <c r="N344" s="10" t="n">
+      <c r="N344" s="15" t="n">
         <v>6.63</v>
       </c>
       <c r="O344" s="9" t="n"/>
@@ -51991,10 +51895,10 @@
       <c r="K346" s="10" t="n">
         <v>45.34</v>
       </c>
-      <c r="L346" s="15" t="n">
+      <c r="L346" s="10" t="n">
         <v>6.73</v>
       </c>
-      <c r="M346" s="15" t="n">
+      <c r="M346" s="10" t="n">
         <v>10.31</v>
       </c>
       <c r="N346" s="9" t="inlineStr">
@@ -52071,10 +51975,10 @@
         </is>
       </c>
       <c r="AI346" s="9" t="n"/>
-      <c r="AJ346" s="14" t="n">
+      <c r="AJ346" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="AK346" s="14" t="n">
+      <c r="AK346" s="8" t="n">
         <v>0.61</v>
       </c>
       <c r="AL346" s="9" t="inlineStr">
@@ -52556,81 +52460,51 @@
         <v>3</v>
       </c>
       <c r="J350" s="9" t="n"/>
-      <c r="K350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K350" s="12" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="L350" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="M350" s="10" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="N350" s="10" t="n">
+        <v>5.64</v>
       </c>
       <c r="O350" s="9" t="n"/>
-      <c r="P350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z350" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P350" s="10" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="Q350" s="11" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="R350" s="10" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="S350" s="10" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="T350" s="11" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="U350" s="11" t="n">
+        <v>-10.18</v>
+      </c>
+      <c r="V350" s="10" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="W350" s="10" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="X350" s="11" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="Y350" s="10" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="Z350" s="11" t="n">
+        <v>-4.67</v>
       </c>
       <c r="AA350" s="12" t="n">
         <v>20.63</v>
@@ -52708,9 +52582,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D351" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D351" s="8" t="inlineStr">
+        <is>
+          <t>Foreign Large Blend</t>
         </is>
       </c>
       <c r="E351" s="9" t="n"/>
@@ -52729,13 +52603,13 @@
         <v>4</v>
       </c>
       <c r="J351" s="9" t="n"/>
-      <c r="K351" s="10" t="n">
+      <c r="K351" s="12" t="n">
         <v>58.97</v>
       </c>
       <c r="L351" s="10" t="n">
         <v>10.47</v>
       </c>
-      <c r="M351" s="10" t="n">
+      <c r="M351" s="12" t="n">
         <v>13.98</v>
       </c>
       <c r="N351" s="9" t="inlineStr">
@@ -52787,10 +52661,8 @@
       <c r="Z351" s="10" t="n">
         <v>16.24</v>
       </c>
-      <c r="AA351" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA351" s="12" t="n">
+        <v>17.67</v>
       </c>
       <c r="AB351" s="9" t="n"/>
       <c r="AC351" s="9" t="inlineStr">
@@ -52804,10 +52676,10 @@
         </is>
       </c>
       <c r="AE351" s="9" t="n"/>
-      <c r="AF351" s="8" t="n">
+      <c r="AF351" s="14" t="n">
         <v>22.53</v>
       </c>
-      <c r="AG351" s="8" t="n">
+      <c r="AG351" s="14" t="n">
         <v>18.5</v>
       </c>
       <c r="AH351" s="9" t="inlineStr">
@@ -52836,7 +52708,7 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AP351" s="13" t="n">
+      <c r="AP351" s="8" t="n">
         <v>100.05</v>
       </c>
       <c r="AQ351" s="9" t="inlineStr">
@@ -52871,9 +52743,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D352" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D352" s="8" t="inlineStr">
+        <is>
+          <t>Large Blend</t>
         </is>
       </c>
       <c r="E352" s="9" t="n"/>
@@ -52892,7 +52764,7 @@
         <v>2</v>
       </c>
       <c r="J352" s="9" t="n"/>
-      <c r="K352" s="10" t="n">
+      <c r="K352" s="12" t="n">
         <v>49.86</v>
       </c>
       <c r="L352" s="10" t="n">
@@ -52948,10 +52820,8 @@
       <c r="Z352" s="10" t="n">
         <v>16.3</v>
       </c>
-      <c r="AA352" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA352" s="10" t="n">
+        <v>18.95</v>
       </c>
       <c r="AB352" s="9" t="n"/>
       <c r="AC352" s="9" t="inlineStr">
@@ -53438,9 +53308,9 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A356" s="8" t="inlineStr">
+        <is>
+          <t>Invesco S&amp;P 500 Top 50 ETF (XLG)</t>
         </is>
       </c>
       <c r="B356" s="8" t="inlineStr">
@@ -53707,13 +53577,13 @@
       </c>
       <c r="AM357" s="9" t="n"/>
       <c r="AN357" s="8" t="n">
-        <v>2.05</v>
+        <v>3.35</v>
       </c>
       <c r="AO357" s="8" t="n">
-        <v>91.26000000000001</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="AP357" s="8" t="n">
-        <v>6.69</v>
+        <v>6</v>
       </c>
       <c r="AQ357" s="9" t="inlineStr">
         <is>
@@ -53873,9 +53743,9 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A359" s="8" t="inlineStr">
+        <is>
+          <t>Vanguard Mega Cap Index Fund ETF Shares (MGC)</t>
         </is>
       </c>
       <c r="B359" s="8" t="inlineStr">
@@ -54014,9 +53884,9 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A360" s="8" t="inlineStr">
+        <is>
+          <t>PRIMECAP Odyssey Stock Fund (POSKX)</t>
         </is>
       </c>
       <c r="B360" s="8" t="inlineStr">
@@ -54105,36 +53975,24 @@
         <v>0.66</v>
       </c>
       <c r="AE360" s="9" t="n"/>
-      <c r="AF360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF360" s="8" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="AG360" s="8" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="AH360" s="8" t="n">
+        <v>14.44</v>
       </c>
       <c r="AI360" s="9" t="n"/>
-      <c r="AJ360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL360" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ360" s="8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AK360" s="8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AL360" s="8" t="n">
+        <v>0.95</v>
       </c>
       <c r="AM360" s="9" t="n"/>
       <c r="AN360" s="8" t="n">
@@ -54837,13 +54695,13 @@
       </c>
       <c r="AM365" s="9" t="n"/>
       <c r="AN365" s="8" t="n">
-        <v>0.4</v>
+        <v>1.53</v>
       </c>
       <c r="AO365" s="8" t="n">
-        <v>98.11</v>
+        <v>97.87</v>
       </c>
       <c r="AP365" s="8" t="n">
-        <v>1.49</v>
+        <v>0.6</v>
       </c>
       <c r="AQ365" s="9" t="inlineStr">
         <is>
@@ -55273,36 +55131,24 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AE368" s="9" t="n"/>
-      <c r="AF368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF368" s="8" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="AG368" s="8" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH368" s="8" t="n">
+        <v>12.52</v>
       </c>
       <c r="AI368" s="9" t="n"/>
-      <c r="AJ368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL368" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ368" s="8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AK368" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL368" s="8" t="n">
+        <v>0.87</v>
       </c>
       <c r="AM368" s="9" t="n"/>
       <c r="AN368" s="8" t="n">
@@ -55365,20 +55211,14 @@
         <v>3</v>
       </c>
       <c r="J369" s="9" t="n"/>
-      <c r="K369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K369" s="10" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="L369" s="10" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="M369" s="10" t="n">
+        <v>13.9</v>
       </c>
       <c r="N369" s="9" t="inlineStr">
         <is>
@@ -55416,30 +55256,20 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="V369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z369" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="V369" s="10" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="W369" s="10" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="X369" s="11" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="Y369" s="10" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="Z369" s="10" t="n">
+        <v>14.14</v>
       </c>
       <c r="AA369" s="10" t="n">
         <v>21.2</v>
@@ -56519,9 +56349,9 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A377" s="8" t="inlineStr">
+        <is>
+          <t>Goldman Sachs U.S. Equity Insights Fund Class R6 (GSEUX)</t>
         </is>
       </c>
       <c r="B377" s="8" t="inlineStr">
@@ -56689,9 +56519,9 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="D378" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D378" s="8" t="inlineStr">
+        <is>
+          <t>Large Blend</t>
         </is>
       </c>
       <c r="E378" s="9" t="n"/>
@@ -56776,21 +56606,15 @@
       <c r="Z378" s="10" t="n">
         <v>19.92</v>
       </c>
-      <c r="AA378" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA378" s="10" t="n">
+        <v>19.17</v>
       </c>
       <c r="AB378" s="9" t="n"/>
-      <c r="AC378" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD378" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AC378" s="8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD378" s="8" t="n">
+        <v>0.51</v>
       </c>
       <c r="AE378" s="9" t="n"/>
       <c r="AF378" s="8" t="n">
@@ -57496,9 +57320,9 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="D383" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D383" s="8" t="inlineStr">
+        <is>
+          <t>Large Blend</t>
         </is>
       </c>
       <c r="E383" s="9" t="n"/>
@@ -57581,21 +57405,15 @@
       <c r="Z383" s="10" t="n">
         <v>14.88</v>
       </c>
-      <c r="AA383" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA383" s="10" t="n">
+        <v>15.98</v>
       </c>
       <c r="AB383" s="9" t="n"/>
-      <c r="AC383" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD383" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AC383" s="8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD383" s="8" t="n">
+        <v>0.27</v>
       </c>
       <c r="AE383" s="9" t="n"/>
       <c r="AF383" s="8" t="n">
@@ -57929,9 +57747,9 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="D386" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D386" s="8" t="inlineStr">
+        <is>
+          <t>Large Blend</t>
         </is>
       </c>
       <c r="E386" s="9" t="n"/>
@@ -57994,21 +57812,15 @@
       <c r="Z386" s="10" t="n">
         <v>14.91</v>
       </c>
-      <c r="AA386" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA386" s="10" t="n">
+        <v>16.18</v>
       </c>
       <c r="AB386" s="9" t="n"/>
-      <c r="AC386" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD386" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AC386" s="8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD386" s="8" t="n">
+        <v>0.57</v>
       </c>
       <c r="AE386" s="9" t="n"/>
       <c r="AF386" s="8" t="n">
@@ -58616,7 +58428,7 @@
       <c r="AF390" s="8" t="n">
         <v>19.05</v>
       </c>
-      <c r="AG390" s="8" t="n">
+      <c r="AG390" s="12" t="n">
         <v>15.26</v>
       </c>
       <c r="AH390" s="8" t="n">
@@ -58700,10 +58512,10 @@
       </c>
       <c r="J391" s="9" t="n"/>
       <c r="K391" s="10" t="n">
-        <v>35.99</v>
+        <v>33.05</v>
       </c>
       <c r="L391" s="10" t="n">
-        <v>18.68</v>
+        <v>18.35</v>
       </c>
       <c r="M391" s="9" t="inlineStr">
         <is>
@@ -58766,7 +58578,7 @@
         <v>18.52</v>
       </c>
       <c r="AA391" s="10" t="n">
-        <v>15.44</v>
+        <v>15.82</v>
       </c>
       <c r="AB391" s="9" t="n"/>
       <c r="AC391" s="8" t="n">
@@ -59155,7 +58967,7 @@
       <c r="M394" s="10" t="n">
         <v>15.42</v>
       </c>
-      <c r="N394" s="15" t="n">
+      <c r="N394" s="10" t="n">
         <v>13.01</v>
       </c>
       <c r="O394" s="9" t="n"/>
@@ -59213,7 +59025,7 @@
       <c r="AG394" s="8" t="n">
         <v>13.41</v>
       </c>
-      <c r="AH394" s="12" t="n">
+      <c r="AH394" s="8" t="n">
         <v>12.25</v>
       </c>
       <c r="AI394" s="9" t="n"/>
@@ -59369,7 +59181,7 @@
       </c>
       <c r="AM395" s="9" t="n"/>
       <c r="AN395" s="8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AO395" s="9" t="inlineStr">
         <is>
@@ -59676,10 +59488,10 @@
         </is>
       </c>
       <c r="AO397" s="8" t="n">
-        <v>97.67</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="AP397" s="8" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="AQ397" s="9" t="inlineStr">
         <is>
@@ -59713,9 +59525,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D398" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D398" s="8" t="inlineStr">
+        <is>
+          <t>Large Blend</t>
         </is>
       </c>
       <c r="E398" s="9" t="n"/>
@@ -59735,13 +59547,13 @@
       <c r="K398" s="10" t="n">
         <v>29.41</v>
       </c>
-      <c r="L398" s="10" t="n">
+      <c r="L398" s="15" t="n">
         <v>13.85</v>
       </c>
       <c r="M398" s="10" t="n">
         <v>12.67</v>
       </c>
-      <c r="N398" s="10" t="n">
+      <c r="N398" s="15" t="n">
         <v>11.69</v>
       </c>
       <c r="O398" s="9" t="n"/>
@@ -59778,10 +59590,8 @@
       <c r="Z398" s="10" t="n">
         <v>7.46</v>
       </c>
-      <c r="AA398" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA398" s="10" t="n">
+        <v>15.8</v>
       </c>
       <c r="AB398" s="9" t="n"/>
       <c r="AC398" s="9" t="inlineStr">
@@ -59795,10 +59605,10 @@
         </is>
       </c>
       <c r="AE398" s="9" t="n"/>
-      <c r="AF398" s="12" t="n">
+      <c r="AF398" s="8" t="n">
         <v>16.77</v>
       </c>
-      <c r="AG398" s="12" t="n">
+      <c r="AG398" s="8" t="n">
         <v>13.68</v>
       </c>
       <c r="AH398" s="12" t="n">
@@ -59808,7 +59618,7 @@
       <c r="AJ398" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="AK398" s="8" t="n">
+      <c r="AK398" s="14" t="n">
         <v>0.86</v>
       </c>
       <c r="AL398" s="8" t="n">
@@ -61267,13 +61077,13 @@
       </c>
       <c r="AM407" s="9" t="n"/>
       <c r="AN407" s="8" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AO407" s="8" t="n">
-        <v>98.68000000000001</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="AP407" s="8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ407" s="9" t="inlineStr">
         <is>
@@ -62961,9 +62771,9 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A419" s="8" t="inlineStr">
+        <is>
+          <t>iShares Russell 1000 Growth ETF (IWF)</t>
         </is>
       </c>
       <c r="B419" s="8" t="inlineStr">
@@ -63117,9 +62927,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D420" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D420" s="8" t="inlineStr">
+        <is>
+          <t>Large Growth</t>
         </is>
       </c>
       <c r="E420" s="9" t="n"/>
@@ -63139,13 +62949,13 @@
       <c r="K420" s="10" t="n">
         <v>45.04</v>
       </c>
-      <c r="L420" s="12" t="n">
+      <c r="L420" s="10" t="n">
         <v>25.7</v>
       </c>
-      <c r="M420" s="12" t="n">
+      <c r="M420" s="10" t="n">
         <v>25.69</v>
       </c>
-      <c r="N420" s="12" t="n">
+      <c r="N420" s="10" t="n">
         <v>19.2</v>
       </c>
       <c r="O420" s="9" t="n"/>
@@ -63182,10 +62992,8 @@
       <c r="Z420" s="10" t="n">
         <v>44.79</v>
       </c>
-      <c r="AA420" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA420" s="10" t="n">
+        <v>14.12</v>
       </c>
       <c r="AB420" s="9" t="n"/>
       <c r="AC420" s="9" t="inlineStr">
@@ -63209,13 +63017,13 @@
         <v>15.62</v>
       </c>
       <c r="AI420" s="9" t="n"/>
-      <c r="AJ420" s="12" t="n">
+      <c r="AJ420" s="8" t="n">
         <v>1.16</v>
       </c>
-      <c r="AK420" s="12" t="n">
+      <c r="AK420" s="8" t="n">
         <v>1.38</v>
       </c>
-      <c r="AL420" s="12" t="n">
+      <c r="AL420" s="8" t="n">
         <v>1.17</v>
       </c>
       <c r="AM420" s="9" t="n"/>
@@ -65027,7 +64835,7 @@
         <v>3</v>
       </c>
       <c r="J433" s="9" t="n"/>
-      <c r="K433" s="12" t="n">
+      <c r="K433" s="10" t="n">
         <v>49.73</v>
       </c>
       <c r="L433" s="10" t="n">
@@ -65559,9 +65367,9 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="A437" s="8" t="inlineStr">
+        <is>
+          <t>iShares Currency Hedged MSCI EAFE ETF (HEFA)</t>
         </is>
       </c>
       <c r="B437" s="8" t="inlineStr">
@@ -65752,20 +65560,14 @@
         <v>4</v>
       </c>
       <c r="J438" s="9" t="n"/>
-      <c r="K438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K438" s="10" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="L438" s="10" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="M438" s="10" t="n">
+        <v>11.74</v>
       </c>
       <c r="N438" s="9" t="inlineStr">
         <is>
@@ -65798,35 +65600,23 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="U438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z438" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="U438" s="10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V438" s="10" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="W438" s="10" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="X438" s="11" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="Y438" s="10" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="Z438" s="10" t="n">
+        <v>6.95</v>
       </c>
       <c r="AA438" s="10" t="n">
         <v>10.5</v>
@@ -65889,7 +65679,7 @@
     <row r="439">
       <c r="A439" s="8" t="inlineStr">
         <is>
-          <t>(ACWX)</t>
+          <t>iShares MSCI ACWI ex U.S. ETF (ACWX)</t>
         </is>
       </c>
       <c r="B439" s="8" t="inlineStr">
@@ -65921,81 +65711,51 @@
         <v>3</v>
       </c>
       <c r="J439" s="9" t="n"/>
-      <c r="K439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="K439" s="10" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="L439" s="10" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="M439" s="10" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="N439" s="10" t="n">
+        <v>5.24</v>
       </c>
       <c r="O439" s="9" t="n"/>
-      <c r="P439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="P439" s="10" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="Q439" s="11" t="n">
+        <v>-14.01</v>
+      </c>
+      <c r="R439" s="10" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="S439" s="10" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="T439" s="11" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="U439" s="11" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="V439" s="10" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="W439" s="10" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="X439" s="11" t="n">
+        <v>-14.09</v>
+      </c>
+      <c r="Y439" s="10" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="Z439" s="10" t="n">
+        <v>10.48</v>
       </c>
       <c r="AA439" s="10" t="n">
         <v>8.18</v>
@@ -66012,36 +65772,24 @@
         </is>
       </c>
       <c r="AE439" s="9" t="n"/>
-      <c r="AF439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF439" s="8" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AG439" s="8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AH439" s="8" t="n">
+        <v>15.08</v>
       </c>
       <c r="AI439" s="9" t="n"/>
-      <c r="AJ439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL439" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ439" s="8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AK439" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL439" s="8" t="n">
+        <v>0.38</v>
       </c>
       <c r="AM439" s="9" t="n"/>
       <c r="AN439" s="8" t="n">
@@ -66405,9 +66153,9 @@
           <t xml:space="preserve">ETF </t>
         </is>
       </c>
-      <c r="D442" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
+      <c r="D442" s="8" t="inlineStr">
+        <is>
+          <t>Foreign Large Blend</t>
         </is>
       </c>
       <c r="E442" s="9" t="n"/>
@@ -66480,10 +66228,8 @@
       <c r="Z442" s="10" t="n">
         <v>11.14</v>
       </c>
-      <c r="AA442" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AA442" s="10" t="n">
+        <v>9.26</v>
       </c>
       <c r="AB442" s="9" t="n"/>
       <c r="AC442" s="9" t="inlineStr">
@@ -66527,7 +66273,7 @@
       <c r="AO442" s="8" t="n">
         <v>0.84</v>
       </c>
-      <c r="AP442" s="13" t="n">
+      <c r="AP442" s="8" t="n">
         <v>98.7</v>
       </c>
       <c r="AQ442" s="9" t="inlineStr">
@@ -66644,36 +66390,24 @@
         </is>
       </c>
       <c r="AE443" s="9" t="n"/>
-      <c r="AF443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF443" s="8" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="AG443" s="8" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="AH443" s="8" t="n">
+        <v>15.12</v>
       </c>
       <c r="AI443" s="9" t="n"/>
-      <c r="AJ443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL443" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ443" s="8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AK443" s="8" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AL443" s="8" t="n">
+        <v>0.4</v>
       </c>
       <c r="AM443" s="9" t="n"/>
       <c r="AN443" s="8" t="n">
@@ -67458,10 +67192,10 @@
       </c>
       <c r="J449" s="9" t="n"/>
       <c r="K449" s="10" t="n">
-        <v>41.95</v>
+        <v>39.54</v>
       </c>
       <c r="L449" s="10" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="M449" s="9" t="inlineStr">
         <is>
@@ -67524,7 +67258,7 @@
         <v>-5.89</v>
       </c>
       <c r="AA449" s="10" t="n">
-        <v>16.53</v>
+        <v>17.91</v>
       </c>
       <c r="AB449" s="9" t="n"/>
       <c r="AC449" s="8" t="n">
@@ -68011,36 +67745,24 @@
         <v>1.03</v>
       </c>
       <c r="AE452" s="9" t="n"/>
-      <c r="AF452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AF452" s="14" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="AG452" s="14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AH452" s="14" t="n">
+        <v>22.14</v>
       </c>
       <c r="AI452" s="9" t="n"/>
-      <c r="AJ452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AK452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AL452" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AJ452" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK452" s="8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL452" s="8" t="n">
+        <v>0.95</v>
       </c>
       <c r="AM452" s="9" t="n"/>
       <c r="AN452" s="8" t="n">
@@ -70485,7 +70207,7 @@
       <c r="AG468" s="8" t="n">
         <v>16.35</v>
       </c>
-      <c r="AH468" s="8" t="n">
+      <c r="AH468" s="12" t="n">
         <v>13.48</v>
       </c>
       <c r="AI468" s="9" t="n"/>
@@ -74363,7 +74085,7 @@
         </is>
       </c>
       <c r="AE494" s="9" t="n"/>
-      <c r="AF494" s="8" t="n">
+      <c r="AF494" s="12" t="n">
         <v>18.54</v>
       </c>
       <c r="AG494" s="8" t="n">
@@ -75255,20 +74977,14 @@
         <v>0.78</v>
       </c>
       <c r="AM500" s="9" t="n"/>
-      <c r="AN500" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AO500" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AP500" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AN500" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO500" s="8" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AP500" s="8" t="n">
+        <v>1.45</v>
       </c>
       <c r="AQ500" s="9" t="inlineStr">
         <is>
@@ -76888,10 +76604,10 @@
         </is>
       </c>
       <c r="AO511" s="8" t="n">
-        <v>95.23</v>
+        <v>95.22</v>
       </c>
       <c r="AP511" s="8" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="AQ511" s="9" t="inlineStr">
         <is>
@@ -77047,10 +76763,10 @@
         </is>
       </c>
       <c r="AO512" s="8" t="n">
-        <v>94.72</v>
+        <v>93.23</v>
       </c>
       <c r="AP512" s="8" t="n">
-        <v>3.67</v>
+        <v>4.52</v>
       </c>
       <c r="AQ512" s="9" t="inlineStr">
         <is>
@@ -77063,7 +76779,7 @@
         </is>
       </c>
       <c r="AS512" s="8" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="513">
@@ -77326,13 +77042,13 @@
       </c>
       <c r="AM514" s="9" t="n"/>
       <c r="AN514" s="8" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AO514" s="8" t="n">
-        <v>91.58</v>
-      </c>
-      <c r="AP514" s="8" t="n">
-        <v>6.97</v>
+        <v>90.54000000000001</v>
+      </c>
+      <c r="AP514" s="13" t="n">
+        <v>7.66</v>
       </c>
       <c r="AQ514" s="9" t="inlineStr">
         <is>
